--- a/data_year/zb/建筑业/建筑业总产值.xlsx
+++ b/data_year/zb/建筑业/建筑业总产值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,379 +458,241 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1394.3775</v>
+        <v>8512.294900000001</v>
       </c>
       <c r="D2" t="n">
-        <v>12497.5961</v>
+        <v>96031.1338</v>
       </c>
       <c r="E2" t="n">
-        <v>10845.2657</v>
+        <v>84753.1139</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3305.38576</v>
+      </c>
       <c r="C3" t="n">
-        <v>1764.218</v>
+        <v>9543.70867</v>
       </c>
       <c r="D3" t="n">
-        <v>15361.6</v>
+        <v>116463.32067</v>
       </c>
       <c r="E3" t="n">
-        <v>13285.4425</v>
+        <v>103665.76683</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4181.34201</v>
+      </c>
       <c r="C4" t="n">
-        <v>2173.5028</v>
+        <v>11316.59456</v>
       </c>
       <c r="D4" t="n">
-        <v>18527.2</v>
+        <v>137217.858</v>
       </c>
       <c r="E4" t="n">
-        <v>15710.3166</v>
+        <v>121719.92144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4810.92036</v>
+      </c>
       <c r="C5" t="n">
-        <v>2576.402</v>
+        <v>13355.19941</v>
       </c>
       <c r="D5" t="n">
-        <v>23083.9</v>
+        <v>160366.06329</v>
       </c>
       <c r="E5" t="n">
-        <v>19508.7179</v>
+        <v>141146.83084</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5311.10914</v>
+      </c>
       <c r="C6" t="n">
-        <v>3068.4664</v>
+        <v>14259.80144</v>
       </c>
       <c r="D6" t="n">
-        <v>29021.5</v>
+        <v>176713.41618</v>
       </c>
       <c r="E6" t="n">
-        <v>23292.924</v>
+        <v>157142.50559</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5497.77738</v>
+      </c>
       <c r="C7" t="n">
-        <v>3835.6612</v>
+        <v>14991.79431</v>
       </c>
       <c r="D7" t="n">
-        <v>34552.1</v>
+        <v>180757.47357</v>
       </c>
       <c r="E7" t="n">
-        <v>29464.38398</v>
+        <v>160267.90188</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5927.54684</v>
+      </c>
       <c r="C8" t="n">
-        <v>4333.13575</v>
+        <v>15774.99997</v>
       </c>
       <c r="D8" t="n">
-        <v>41557.16</v>
+        <v>193566.77736</v>
       </c>
       <c r="E8" t="n">
-        <v>35864.6122</v>
+        <v>171864.23055</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6896.90151</v>
+      </c>
       <c r="C9" t="n">
-        <v>5101.0725</v>
+        <v>17882.02781</v>
       </c>
       <c r="D9" t="n">
-        <v>51043.71</v>
+        <v>213943.55899</v>
       </c>
       <c r="E9" t="n">
-        <v>44446.98971</v>
+        <v>189164.62967</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7868.91</v>
+      </c>
       <c r="C10" t="n">
-        <v>6241.73549</v>
+        <v>19630.16</v>
       </c>
       <c r="D10" t="n">
-        <v>62036.80608</v>
+        <v>225816.86</v>
       </c>
       <c r="E10" t="n">
-        <v>53831.60457</v>
+        <v>207586.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8428.79969</v>
+      </c>
       <c r="C11" t="n">
-        <v>7319.14396</v>
+        <v>21353.81595</v>
       </c>
       <c r="D11" t="n">
-        <v>76807.74163999999</v>
+        <v>248443.27073</v>
       </c>
       <c r="E11" t="n">
-        <v>67208.41813000001</v>
+        <v>218660.65509</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9149.45759</v>
+      </c>
       <c r="C12" t="n">
-        <v>8512.294900000001</v>
+        <v>22080.46894</v>
       </c>
       <c r="D12" t="n">
-        <v>96031.1338</v>
+        <v>263947.39286</v>
       </c>
       <c r="E12" t="n">
-        <v>84753.1139</v>
+        <v>232717.46633</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3305.38576</v>
+        <v>9396.47574</v>
       </c>
       <c r="C13" t="n">
-        <v>9543.70867</v>
+        <v>24477.73948</v>
       </c>
       <c r="D13" t="n">
-        <v>116463.32067</v>
+        <v>293027.41778</v>
       </c>
       <c r="E13" t="n">
-        <v>103665.76683</v>
+        <v>259204.08664</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4181.34201</v>
-      </c>
-      <c r="C14" t="n">
-        <v>11316.59456</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>137217.858</v>
-      </c>
-      <c r="E14" t="n">
-        <v>121719.92144</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4810.92036</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13355.19941</v>
-      </c>
-      <c r="D15" t="n">
-        <v>160366.06329</v>
-      </c>
-      <c r="E15" t="n">
-        <v>141146.83084</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5311.10914</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14259.80144</v>
-      </c>
-      <c r="D16" t="n">
-        <v>176713.41618</v>
-      </c>
-      <c r="E16" t="n">
-        <v>157142.50559</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5497.77738</v>
-      </c>
-      <c r="C17" t="n">
-        <v>14991.79431</v>
-      </c>
-      <c r="D17" t="n">
-        <v>180757.47357</v>
-      </c>
-      <c r="E17" t="n">
-        <v>160267.90188</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5927.54684</v>
-      </c>
-      <c r="C18" t="n">
-        <v>15774.99997</v>
-      </c>
-      <c r="D18" t="n">
-        <v>193566.77736</v>
-      </c>
-      <c r="E18" t="n">
-        <v>171864.23055</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6896.90151</v>
-      </c>
-      <c r="C19" t="n">
-        <v>17882.02781</v>
-      </c>
-      <c r="D19" t="n">
-        <v>213943.55899</v>
-      </c>
-      <c r="E19" t="n">
-        <v>189164.62967</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7868.91</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19630.16</v>
-      </c>
-      <c r="D20" t="n">
-        <v>225816.86</v>
-      </c>
-      <c r="E20" t="n">
-        <v>207586.45</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>8428.79969</v>
-      </c>
-      <c r="C21" t="n">
-        <v>21353.81595</v>
-      </c>
-      <c r="D21" t="n">
-        <v>248443.27073</v>
-      </c>
-      <c r="E21" t="n">
-        <v>218660.65509</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>9149.45759</v>
-      </c>
-      <c r="C22" t="n">
-        <v>22080.46894</v>
-      </c>
-      <c r="D22" t="n">
-        <v>263947.39286</v>
-      </c>
-      <c r="E22" t="n">
-        <v>232717.46633</v>
-      </c>
+        <v>311979.83974</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
